--- a/Output/May/productivity_agent_valid/productivity_agent_2022-05-03_valid.xlsx
+++ b/Output/May/productivity_agent_valid/productivity_agent_2022-05-03_valid.xlsx
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -6103,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="AZ16">
-        <v>0</v>
+        <v>311.304347826087</v>
       </c>
       <c r="BA16">
         <v>0</v>
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="CL16">
-        <v>0</v>
+        <v>0.3662404092071612</v>
       </c>
       <c r="CM16">
         <v>0</v>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="DA16">
-        <v>0.333521345971269</v>
+        <v>0.3811119076196572</v>
       </c>
     </row>
     <row r="17" spans="1:105">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="O17">
         <v>3840</v>
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="AZ17">
-        <v>0</v>
+        <v>426.2068965517241</v>
       </c>
       <c r="BA17">
         <v>663.9769452449567</v>
@@ -6534,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="CL17">
-        <v>0</v>
+        <v>0.501419878296146</v>
       </c>
       <c r="CM17">
         <v>0.8299711815561959</v>
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="DA17">
-        <v>0.6781394961343641</v>
+        <v>0.7074563841799049</v>
       </c>
     </row>
     <row r="18" spans="1:105">
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="AZ18">
-        <v>0</v>
+        <v>519.4736842105264</v>
       </c>
       <c r="BA18">
         <v>0</v>
@@ -6851,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="CL18">
-        <v>0</v>
+        <v>0.6111455108359134</v>
       </c>
       <c r="CM18">
         <v>0</v>
@@ -6896,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="DA18">
-        <v>0.2233227539829683</v>
+        <v>0.2674739505832814</v>
       </c>
     </row>
     <row r="19" spans="1:105">
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>3002</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="AZ21">
-        <v>0</v>
+        <v>485.4986522911051</v>
       </c>
       <c r="BA21">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="CL21">
-        <v>0</v>
+        <v>0.5711748850483589</v>
       </c>
       <c r="CM21">
         <v>0</v>
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="DA21">
-        <v>0.05965446153284804</v>
+        <v>0.5274378662854775</v>
       </c>
     </row>
     <row r="22" spans="1:105">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="O22">
         <v>2299</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="BA22">
         <v>563.0204081632652</v>
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="CL22">
-        <v>0</v>
+        <v>0.7247058823529412</v>
       </c>
       <c r="CM22">
         <v>0.7037755102040815</v>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
       <c r="DA22">
-        <v>0.4808294980287359</v>
+        <v>0.5242250598462773</v>
       </c>
     </row>
     <row r="23" spans="1:105">
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -8322,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="AZ23">
-        <v>0</v>
+        <v>476.7567567567567</v>
       </c>
       <c r="BA23">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="CL23">
-        <v>0</v>
+        <v>0.5608903020667726</v>
       </c>
       <c r="CM23">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="DA23">
-        <v>0.3074251497005988</v>
+        <v>0.3488481859809792</v>
       </c>
     </row>
     <row r="24" spans="1:105">
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1637</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -10858,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="AZ31">
-        <v>0</v>
+        <v>469.9521531100478</v>
       </c>
       <c r="BA31">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="CL31">
-        <v>0</v>
+        <v>0.552884886011821</v>
       </c>
       <c r="CM31">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="DA31">
-        <v>0.2561116111611161</v>
+        <v>0.4849293164610579</v>
       </c>
     </row>
     <row r="32" spans="1:105">
@@ -15182,7 +15182,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="O45">
         <v>460</v>
@@ -15296,7 +15296,7 @@
         <v>0</v>
       </c>
       <c r="AZ45">
-        <v>0</v>
+        <v>318.2142857142857</v>
       </c>
       <c r="BA45">
         <v>587.2340425531914</v>
@@ -15410,7 +15410,7 @@
         <v>0</v>
       </c>
       <c r="CL45">
-        <v>0</v>
+        <v>0.3743697478991597</v>
       </c>
       <c r="CM45">
         <v>0.7340425531914893</v>
@@ -15455,7 +15455,7 @@
         <v>0</v>
       </c>
       <c r="DA45">
-        <v>0.3194540445780115</v>
+        <v>0.3591599269309527</v>
       </c>
     </row>
     <row r="46" spans="1:105">
@@ -17401,7 +17401,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -17515,7 +17515,7 @@
         <v>0</v>
       </c>
       <c r="AZ52">
-        <v>0</v>
+        <v>115.5</v>
       </c>
       <c r="BA52">
         <v>0</v>
@@ -17629,7 +17629,7 @@
         <v>0</v>
       </c>
       <c r="CL52">
-        <v>0</v>
+        <v>0.1358823529411765</v>
       </c>
       <c r="CM52">
         <v>0</v>
@@ -17674,7 +17674,7 @@
         <v>0</v>
       </c>
       <c r="DA52">
-        <v>0</v>
+        <v>0.1358823529411765</v>
       </c>
     </row>
     <row r="53" spans="1:105">
@@ -18669,7 +18669,7 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>1462</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -18783,7 +18783,7 @@
         <v>0</v>
       </c>
       <c r="AZ56">
-        <v>0</v>
+        <v>690.7086614173228</v>
       </c>
       <c r="BA56">
         <v>0</v>
@@ -18897,7 +18897,7 @@
         <v>0</v>
       </c>
       <c r="CL56">
-        <v>0</v>
+        <v>0.8125984251968503</v>
       </c>
       <c r="CM56">
         <v>0</v>
@@ -18942,7 +18942,7 @@
         <v>0</v>
       </c>
       <c r="DA56">
-        <v>0.4719196093163035</v>
+        <v>0.7651014274981216</v>
       </c>
     </row>
     <row r="57" spans="1:105">
@@ -19620,7 +19620,7 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>2154</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -19734,7 +19734,7 @@
         <v>0</v>
       </c>
       <c r="AZ59">
-        <v>0</v>
+        <v>366.1189801699717</v>
       </c>
       <c r="BA59">
         <v>0</v>
@@ -19848,7 +19848,7 @@
         <v>0</v>
       </c>
       <c r="CL59">
-        <v>0</v>
+        <v>0.4307282119646725</v>
       </c>
       <c r="CM59">
         <v>0</v>
@@ -19893,7 +19893,7 @@
         <v>0</v>
       </c>
       <c r="DA59">
-        <v>0</v>
+        <v>0.4307282119646725</v>
       </c>
     </row>
     <row r="60" spans="1:105">
@@ -20888,7 +20888,7 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>1911</v>
       </c>
       <c r="O63">
         <v>461</v>
@@ -21002,7 +21002,7 @@
         <v>0</v>
       </c>
       <c r="AZ63">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="BA63">
         <v>790.2857142857142</v>
@@ -21116,7 +21116,7 @@
         <v>0</v>
       </c>
       <c r="CL63">
-        <v>0</v>
+        <v>0.6882352941176471</v>
       </c>
       <c r="CM63">
         <v>0.9878571428571428</v>
@@ -21161,7 +21161,7 @@
         <v>0</v>
       </c>
       <c r="DA63">
-        <v>0.6251986754966888</v>
+        <v>0.9229781846513441</v>
       </c>
     </row>
     <row r="64" spans="1:105">
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="AC64">
         <v>0</v>
@@ -21361,7 +21361,7 @@
         <v>0</v>
       </c>
       <c r="BN64">
-        <v>0</v>
+        <v>80.80645161290323</v>
       </c>
       <c r="BO64">
         <v>0</v>
@@ -21475,10 +21475,10 @@
         <v>0</v>
       </c>
       <c r="CZ64">
-        <v>0</v>
+        <v>0.4040322580645161</v>
       </c>
       <c r="DA64">
-        <v>0.01460322554762096</v>
+        <v>0.403729439139854</v>
       </c>
     </row>
     <row r="65" spans="1:105">
@@ -22473,7 +22473,7 @@
         <v>24</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="O68">
         <v>3043</v>
@@ -22587,7 +22587,7 @@
         <v>28.23529411764706</v>
       </c>
       <c r="AZ68">
-        <v>0</v>
+        <v>341.1290322580645</v>
       </c>
       <c r="BA68">
         <v>666.3503649635037</v>
@@ -22701,7 +22701,7 @@
         <v>0.006087816756715623</v>
       </c>
       <c r="CL68">
-        <v>0</v>
+        <v>0.4013282732447817</v>
       </c>
       <c r="CM68">
         <v>0.8329379562043796</v>
@@ -22746,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="DA68">
-        <v>0.457684026839913</v>
+        <v>0.5488281768075923</v>
       </c>
     </row>
     <row r="69" spans="1:105">
